--- a/data/cci/cci-ontology.xlsx
+++ b/data/cci/cci-ontology.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antony.wilson/git/cci-vocabularies/data/cci/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA1BCF0-8FB9-4E45-9F83-4F73D33AA6E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21EDFEFE-E61E-344C-B1E6-13FCCA8BD6E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38240" yWindow="-3860" windowWidth="36280" windowHeight="18880" xr2:uid="{D11D1E9E-3933-534E-B649-1BCF233190E1}"/>
+    <workbookView xWindow="-76080" yWindow="-2320" windowWidth="36280" windowHeight="18880" xr2:uid="{D11D1E9E-3933-534E-B649-1BCF233190E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -90,7 +90,7 @@
     <t>Science and Technology Facilities Council</t>
   </si>
   <si>
-    <t>&lt;h4&gt;OWL Classes&lt;/h4&gt;There are currently 10 classes in the ontology, each of which represents an entry in the DRS as well a two object properties to link sensors and platforms.&lt;h5&gt;OWL Classes&lt;/h5&gt;&lt;p&gt;&lt;img src=classes.svg&gt;&lt;p&gt;&lt;/p&gt;&lt;h4&gt;Concept Schemes&lt;/h4&gt;&lt;p&gt;The named individuals of each class are also represented as concepts in SKOS concept schemes: &lt;a href=../../../scheme/cci/dataType&gt;data type&lt;/a&gt;, &lt;a href=../../../scheme/cci/ecv&gt;ecv&lt;/a&gt;, &lt;a href=../../../scheme/cci/freq&gt;frequency&lt;/a&gt;, &lt;a href=../../../scheme/cci/org&gt;institutes&lt;/a&gt;, &lt;a href=../../../scheme/cci/platform&gt;platforms&lt;/a&gt;, &lt;a href=../../../scheme/cci/platformGrp&gt;platform groups&lt;/a&gt;, &lt;a href=../../../scheme/cci/platformProg&gt;platform programmes&lt;/a&gt;, &lt;a href=../../../scheme/cci/procLev&gt;processing levels&lt;/a&gt;, &lt;a href=../../../scheme/cci/product&gt;products&lt;/a&gt;, and &lt;a href=../../../scheme/cci/sensor&gt;sensors&lt;/a&gt;. The use of a concept scheme allows easy navigation up and down the tree as well as providing relationships to concepts from other DRS. As well as relationships between sensors and platforms, each ECV concept is related to one or more data type concepts.&lt;/p&gt;&lt;h5&gt;SKOS Navigation Down the Concept Scheme&lt;/h5&gt;&lt;img src=../../../scheme/cci/conceptSchemeDown.svg /&gt;&lt;h5&gt;SKOS Navigation Up the Concept Scheme&lt;/h5&gt;&lt;img src=../../../scheme/cci/conceptSchemeUp.svg /&gt;&lt;h4&gt;Collections&lt;/h4&gt;&lt;p&gt;The named individuals of each class are also represented as members in SKOS collections: &lt;a href=../../../collection/cci/dataType&gt;data type&lt;/a&gt;, &lt;a href=../../../collection/cci/ecv&gt;ecv&lt;/a&gt;, &lt;a href=../../../collection/cci/freq&gt;frequency&lt;/a&gt;, &lt;a href=../../../collection/cci/org&gt;institutes&lt;/a&gt;, &lt;a href=../../../collection/cci/platform&gt;platforms&lt;/a&gt;, &lt;a href=../../../scheme/cci/platformGrp&gt;platform groups&lt;/a&gt;, &lt;a href=../../../scheme/cci/platformProg&gt;platform programs&lt;/a&gt;, &lt;a href=../../../collection/cci/procLev&gt;processing levels&lt;/a&gt;, &lt;a href=../../../collection/cci/product&gt;products&lt;/a&gt;,  and &lt;a href=../../../collection/cci/sensor&gt;sensors&lt;/a&gt;. As well as relationships between sensors and platforms, each ECV concept is related to one or more data type concepts.&lt;/p&gt;&lt;h5&gt;SKOS Collections&lt;/h5&gt;&lt;img src=../../../collection/cci/collection.svg /&gt;</t>
+    <t>&lt;h4&gt;OWL Classes&lt;/h4&gt;There are currently 11 classes in the ontology, each of which represents an entry in the DRS as well a two object properties to link sensors and platforms.&lt;h5&gt;OWL Classes&lt;/h5&gt;&lt;p&gt;&lt;img src=classes.svg&gt;&lt;p&gt;&lt;/p&gt;&lt;h4&gt;Concept Schemes&lt;/h4&gt;&lt;p&gt;The named individuals of each class are also represented as concepts in SKOS concept schemes: &lt;a href=../../../scheme/cci/dataType&gt;data type&lt;/a&gt;, &lt;a href=../../../scheme/cci/ecv&gt;ecv&lt;/a&gt;, &lt;a href=../../../scheme/cci/freq&gt;frequency&lt;/a&gt;, &lt;a href=../../../scheme/cci/org&gt;institutes&lt;/a&gt;, &lt;a href=../../../scheme/cci/platform&gt;platforms&lt;/a&gt;, &lt;a href=../../../scheme/cci/platformGrp&gt;platform groups&lt;/a&gt;, &lt;a href=../../../scheme/cci/platformProg&gt;platform programmes&lt;/a&gt;, &lt;a href=../../../scheme/cci/procLev&gt;processing levels&lt;/a&gt;, &lt;a href=../../../scheme/cci/product&gt;products&lt;/a&gt;, &lt;a href=../../../scheme/cci/project&gt;projects&lt;/a&gt;,, and &lt;a href=../../../scheme/cci/sensor&gt;sensors&lt;/a&gt;. The use of a concept scheme allows easy navigation up and down the tree as well as providing relationships to concepts from other DRS. As well as relationships between sensors and platforms, each ECV concept is related to one or more data type concepts.&lt;/p&gt;&lt;h5&gt;SKOS Navigation Down the Concept Scheme&lt;/h5&gt;&lt;img src=../../../scheme/cci/conceptSchemeDown.svg /&gt;&lt;h5&gt;SKOS Navigation Up the Concept Scheme&lt;/h5&gt;&lt;img src=../../../scheme/cci/conceptSchemeUp.svg /&gt;&lt;h4&gt;Collections&lt;/h4&gt;&lt;p&gt;The named individuals of each class are also represented as members in SKOS collections: &lt;a href=../../../collection/cci/dataType&gt;data type&lt;/a&gt;, &lt;a href=../../../collection/cci/ecv&gt;ecv&lt;/a&gt;, &lt;a href=../../../collection/cci/freq&gt;frequency&lt;/a&gt;, &lt;a href=../../../collection/cci/org&gt;institutes&lt;/a&gt;, &lt;a href=../../../collection/cci/platform&gt;platforms&lt;/a&gt;, &lt;a href=../../../scheme/cci/platformGrp&gt;platform groups&lt;/a&gt;, &lt;a href=../../../scheme/cci/platformProg&gt;platform programs&lt;/a&gt;, &lt;a href=../../../collection/cci/procLev&gt;processing levels&lt;/a&gt;, &lt;a href=../../../collection/cci/product&gt;products&lt;/a&gt;, &lt;a href=../../../collection/cci/project&gt;projects&lt;/a&gt;,  and &lt;a href=../../../collection/cci/sensor&gt;sensors&lt;/a&gt;. As well as relationships between sensors and platforms, each ECV concept is related to one or more data type concepts.&lt;/p&gt;&lt;h5&gt;SKOS Collections&lt;/h5&gt;&lt;img src=../../../collection/cci/collection.svg /&gt;</t>
   </si>
 </sst>
 </file>
@@ -538,8 +538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4FF0474-66FE-1348-9F78-858CCE830606}">
   <dimension ref="A1:AMH24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -595,7 +595,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="168">
+    <row r="2" spans="1:37" ht="182">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
